--- a/dataTools/excelData/item/item.xlsx
+++ b/dataTools/excelData/item/item.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>ID</t>
   </si>
@@ -117,6 +117,14 @@
   </si>
   <si>
     <t>Desc_HPPotion</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>品质</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUALITY</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1035,22 +1043,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomRight" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="3" width="11.875" customWidth="1"/>
-    <col min="8" max="8" width="14.125" customWidth="1"/>
+    <col min="9" max="9" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1070,10 +1078,13 @@
         <v>12</v>
       </c>
       <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1093,10 +1104,13 @@
         <v>13</v>
       </c>
       <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>10001</v>
       </c>
@@ -1115,11 +1129,14 @@
       <c r="F3">
         <v>0</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>10002</v>
       </c>
@@ -1138,11 +1155,14 @@
       <c r="F4">
         <v>0</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>10003</v>
       </c>
@@ -1161,11 +1181,14 @@
       <c r="F5">
         <v>0</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>20001</v>
       </c>
@@ -1184,7 +1207,10 @@
       <c r="F6">
         <v>0</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
         <v>24</v>
       </c>
     </row>

--- a/dataTools/excelData/item/item.xlsx
+++ b/dataTools/excelData/item/item.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>ID</t>
   </si>
@@ -125,6 +125,62 @@
   </si>
   <si>
     <t>QUALITY</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRICE</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_MPPotion</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_20002</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desc_MPPotion</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_IronOre</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_20003</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desc_IronOre</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_CopperOre</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_20004</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desc_CopperOre</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_Wood</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_20005</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desc_Wood</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1043,22 +1099,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K9" sqref="K9"/>
+      <selection pane="bottomRight" activeCell="I8" sqref="I8:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="11.875" customWidth="1"/>
-    <col min="9" max="9" width="14.125" customWidth="1"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="3" max="3" width="11.875" customWidth="1"/>
+    <col min="10" max="10" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1081,10 +1138,13 @@
         <v>25</v>
       </c>
       <c r="H1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1107,10 +1167,13 @@
         <v>26</v>
       </c>
       <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>10001</v>
       </c>
@@ -1132,11 +1195,14 @@
       <c r="G3">
         <v>3</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>10002</v>
       </c>
@@ -1158,11 +1224,14 @@
       <c r="G4">
         <v>4</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>10003</v>
       </c>
@@ -1184,11 +1253,14 @@
       <c r="G5">
         <v>5</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>20001</v>
       </c>
@@ -1210,8 +1282,127 @@
       <c r="G6">
         <v>1</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6">
+        <v>50</v>
+      </c>
+      <c r="I6" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>20002</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>50</v>
+      </c>
+      <c r="I7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>20003</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>100</v>
+      </c>
+      <c r="I8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>20004</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>100</v>
+      </c>
+      <c r="I9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>20005</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>30</v>
+      </c>
+      <c r="I10" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/dataTools/excelData/item/item.xlsx
+++ b/dataTools/excelData/item/item.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>ID</t>
   </si>
@@ -181,6 +181,14 @@
   </si>
   <si>
     <t>Desc_Wood</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>出售价格</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELLPRICE</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1099,23 +1107,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I8" sqref="I8:I10"/>
+      <selection pane="bottomRight" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15.625" customWidth="1"/>
     <col min="3" max="3" width="11.875" customWidth="1"/>
-    <col min="10" max="10" width="14.125" customWidth="1"/>
+    <col min="11" max="11" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1141,10 +1149,13 @@
         <v>27</v>
       </c>
       <c r="I1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1170,10 +1181,13 @@
         <v>28</v>
       </c>
       <c r="I2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>10001</v>
       </c>
@@ -1198,11 +1212,14 @@
       <c r="H3">
         <v>0</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>10002</v>
       </c>
@@ -1227,11 +1244,14 @@
       <c r="H4">
         <v>0</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>10003</v>
       </c>
@@ -1256,11 +1276,14 @@
       <c r="H5">
         <v>0</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>20001</v>
       </c>
@@ -1285,11 +1308,14 @@
       <c r="H6">
         <v>50</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6">
+        <v>25</v>
+      </c>
+      <c r="J6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>20002</v>
       </c>
@@ -1314,11 +1340,14 @@
       <c r="H7">
         <v>50</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7">
+        <v>25</v>
+      </c>
+      <c r="J7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>20003</v>
       </c>
@@ -1343,11 +1372,14 @@
       <c r="H8">
         <v>100</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8">
+        <v>50</v>
+      </c>
+      <c r="J8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>20004</v>
       </c>
@@ -1372,11 +1404,14 @@
       <c r="H9">
         <v>100</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9">
+        <v>50</v>
+      </c>
+      <c r="J9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>20005</v>
       </c>
@@ -1401,7 +1436,10 @@
       <c r="H10">
         <v>30</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10">
+        <v>15</v>
+      </c>
+      <c r="J10" t="s">
         <v>40</v>
       </c>
     </row>

--- a/dataTools/excelData/item/item.xlsx
+++ b/dataTools/excelData/item/item.xlsx
@@ -1113,7 +1113,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K12" sqref="K12"/>
+      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1367,7 +1367,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8">
         <v>100</v>
@@ -1399,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <v>100</v>
